--- a/The transmission of monetary policy in Brazil/ReplicaForniGambetti_JULIANA_2022/TransGF_145.xlsx
+++ b/The transmission of monetary policy in Brazil/ReplicaForniGambetti_JULIANA_2022/TransGF_145.xlsx
@@ -1,23 +1,679 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Documents\Papers\Acadêmicos\Research\The transmission of monetary policy in Brazil\ReplicaForniGambetti_JULIANA_2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9320F13-DAA7-46D9-8228-D9F7011BF92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="22755" windowHeight="9000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Banco Safra S/A</author>
+    <author>freque</author>
+  </authors>
+  <commentList>
+    <comment ref="CO3" authorId="0" shapeId="0" xr:uid="{A574A410-4BAB-4391-B48C-276AD5E5E00A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Banco Safra S/A:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+27841 - Meios de pagamento - M1 (saldo em final de período) - Novo - sazonalmente ajustado - u.m.c. (mil)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CP3" authorId="0" shapeId="0" xr:uid="{462AF694-A1C2-48B5-AD1E-D6A69630AFAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Banco Safra S/A:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+27842 - Meios de pagamento amplos - M2 (saldo em final de período) - Novo - sazonalmente ajustado - u.m.c. (mil)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DB3" authorId="0" shapeId="0" xr:uid="{85E65550-1AD4-4688-B92D-EF31CF2D4313}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Banco Safra S/A:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+11752 - Índice da taxa de câmbio real efetiva (IPCA) - Jun/1994=100 - Índice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="EH3" authorId="0" shapeId="0" xr:uid="{F35814FC-5CF3-448F-AF2C-EF504575779B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Banco Safra S/A:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+plan MCM
+média mensal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DJ4" authorId="1" shapeId="0" xr:uid="{313D8E8D-7150-4323-894A-90538CEF138E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1420484</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Banco Safra S/A</author>
+    <author>freque</author>
+  </authors>
+  <commentList>
+    <comment ref="CK3" authorId="0" shapeId="0" xr:uid="{48544AAF-13BF-4ACD-8649-7CB5A8681F13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Banco Safra S/A:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+27841 - Meios de pagamento - M1 (saldo em final de período) - Novo - sazonalmente ajustado - u.m.c. (mil)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CL3" authorId="0" shapeId="0" xr:uid="{CAB84AB5-D0A1-4735-B254-D4CDBE0992B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Banco Safra S/A:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+27842 - Meios de pagamento amplos - M2 (saldo em final de período) - Novo - sazonalmente ajustado - u.m.c. (mil)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CX3" authorId="0" shapeId="0" xr:uid="{FCE26462-6B9A-4285-8E6B-D1D1FBB4F1CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Banco Safra S/A:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+11752 - Índice da taxa de câmbio real efetiva (IPCA) - Jun/1994=100 - Índice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ED3" authorId="0" shapeId="0" xr:uid="{D4C2AD33-8509-4B39-B982-0E8211F10CBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Banco Safra S/A:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+plan MCM
+média mensal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DF4" authorId="1" shapeId="0" xr:uid="{C4E754F6-D5F4-4FA8-A92F-359FC15D2EFB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1420484</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="134">
+  <si>
+    <t>Extrativa mineral</t>
+  </si>
+  <si>
+    <t>Indústria de transformação</t>
+  </si>
+  <si>
+    <t>Bens de capital</t>
+  </si>
+  <si>
+    <t>Bens intermediários</t>
+  </si>
+  <si>
+    <t>Indústria geral</t>
+  </si>
+  <si>
+    <t>Bens de consumo</t>
+  </si>
+  <si>
+    <t>Bens de consumo duráveis</t>
+  </si>
+  <si>
+    <t>Bens de consumo semi e não duráveis</t>
+  </si>
+  <si>
+    <t>Insumos típicos da construção civil</t>
+  </si>
+  <si>
+    <t>Comércio Varejista - Restrito</t>
+  </si>
+  <si>
+    <t>Combustíveis e Lubrificantes</t>
+  </si>
+  <si>
+    <t>Hiperm., superm., prod. alimentícios. bebidas e fumo</t>
+  </si>
+  <si>
+    <t>Tecidos. vestuário e calçados</t>
+  </si>
+  <si>
+    <t>Móveis e Eletrodomésticos</t>
+  </si>
+  <si>
+    <t>Demais artigos de uso pessoal e doméstico</t>
+  </si>
+  <si>
+    <t>Veículos. motos. partes e peças</t>
+  </si>
+  <si>
+    <t>Material de Construção</t>
+  </si>
+  <si>
+    <t>Comércio Varejista - Ampliado</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Índice de Confiança da Indústria</t>
+  </si>
+  <si>
+    <t>Índ. de Conf. da Ind - Situação atual</t>
+  </si>
+  <si>
+    <t>Índ. de Conf. da Ind - Expectativas</t>
+  </si>
+  <si>
+    <t>Indicador de Demanda Total</t>
+  </si>
+  <si>
+    <t>Indicador de Nível de estoques</t>
+  </si>
+  <si>
+    <t>Indicador de Demanda Total Prevista</t>
+  </si>
+  <si>
+    <t>Indicador de Produção prevista</t>
+  </si>
+  <si>
+    <t>Indicador de Emprego  previsto</t>
+  </si>
+  <si>
+    <t>Indicador de Tendência dos negócios</t>
+  </si>
+  <si>
+    <t>NUCI</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Receita Líquida</t>
+  </si>
+  <si>
+    <t>Despesas Totais</t>
+  </si>
+  <si>
+    <t>Despesas Obrigatórias</t>
+  </si>
+  <si>
+    <t>Despesas Discricionárias</t>
+  </si>
+  <si>
+    <t>Dívida Bruta/PIB</t>
+  </si>
+  <si>
+    <t>Tx de desemprego</t>
+  </si>
+  <si>
+    <t>Tx de participação</t>
+  </si>
+  <si>
+    <t>População ocupada</t>
+  </si>
+  <si>
+    <t>Rendimento médio real</t>
+  </si>
+  <si>
+    <t>Admissões</t>
+  </si>
+  <si>
+    <t>Demissões</t>
+  </si>
+  <si>
+    <t>Salário médio de admissão</t>
+  </si>
+  <si>
+    <t>Salário médio de demissão</t>
+  </si>
+  <si>
+    <t>Saldos (R$ bilhões)</t>
+  </si>
+  <si>
+    <t>Saldo PF Livre</t>
+  </si>
+  <si>
+    <t>Taxa Selic target</t>
+  </si>
+  <si>
+    <t>Saldo PF Direcionado</t>
+  </si>
+  <si>
+    <t>Saldo PJ Livre</t>
+  </si>
+  <si>
+    <t>Saldo PJ Direcionado</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Preços Administrados</t>
+  </si>
+  <si>
+    <t>IPCA TOTAL</t>
+  </si>
+  <si>
+    <t>Total Livres</t>
+  </si>
+  <si>
+    <t>Critério BC</t>
+  </si>
+  <si>
+    <t>Medidas Subjacentes</t>
+  </si>
+  <si>
+    <t>Núcleos**</t>
+  </si>
+  <si>
+    <t>Taxa de câmbio real</t>
+  </si>
+  <si>
+    <t>IGP-DI</t>
+  </si>
+  <si>
+    <t>IPA-DI</t>
+  </si>
+  <si>
+    <t>INCC-DI</t>
+  </si>
+  <si>
+    <t>Déficit em CC</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>Investimentos em Renda Fixa</t>
+  </si>
+  <si>
+    <t>Investimentos em ações</t>
+  </si>
+  <si>
+    <t>Exportações - Total</t>
+  </si>
+  <si>
+    <t>Bens de Capital</t>
+  </si>
+  <si>
+    <t>Intermediários</t>
+  </si>
+  <si>
+    <t>Bens de Consumo Duráveis</t>
+  </si>
+  <si>
+    <t>Bens de Consumo Não Duráveis</t>
+  </si>
+  <si>
+    <t>Combustíveis</t>
+  </si>
+  <si>
+    <t>Importações - Total</t>
+  </si>
+  <si>
+    <t>Swap Pré-DI 90 dias</t>
+  </si>
+  <si>
+    <t>Swap Pré-DI 360 dias</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>TJLP</t>
+  </si>
+  <si>
+    <t>VIX</t>
+  </si>
+  <si>
+    <t>DXY</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice Ibovespa </t>
+  </si>
+  <si>
+    <t>Taxa de câmbio nominal</t>
+  </si>
+  <si>
+    <t>11756 - Índice da taxa de câmbio real (IPCA) - Jun/1994=100 - Peso argentino</t>
+  </si>
+  <si>
+    <t>Treasury 2Y</t>
+  </si>
+  <si>
+    <t>Treasury 10Y</t>
+  </si>
+  <si>
+    <t>17633 - Recolhimentos obrigatórios de instituições financeiras - Saldo total - u.m.c. (mil)</t>
+  </si>
+  <si>
+    <t>Caderneta de poupança (total) 0 Saldos 0 u.m.c. (milhões)</t>
+  </si>
+  <si>
+    <t>Supermercados e Hipermercados</t>
+  </si>
+  <si>
+    <t>Artigos farmac., médicos, ortopédicos, perfumaria e cosméticos</t>
+  </si>
+  <si>
+    <t>Livros. jornais. revistas e papelaria</t>
+  </si>
+  <si>
+    <t>Equip. e materiais para escritório. informática e comunicação</t>
+  </si>
+  <si>
+    <t>Outros artigos de uso pessoal e doméstico</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Extrativa Mineral</t>
+  </si>
+  <si>
+    <t>Indústria de Transformação</t>
+  </si>
+  <si>
+    <t>Serviços Industriais de Utilidade Pública</t>
+  </si>
+  <si>
+    <t>Construção Civil</t>
+  </si>
+  <si>
+    <t>Comércio</t>
+  </si>
+  <si>
+    <t>Serviços</t>
+  </si>
+  <si>
+    <t>Administração Pública</t>
+  </si>
+  <si>
+    <t>Agropecuária</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Cheque Especial</t>
+  </si>
+  <si>
+    <t>Crédito Pessoal</t>
+  </si>
+  <si>
+    <t>Aquisição de veículos</t>
+  </si>
+  <si>
+    <t>Aquisição de outros bens</t>
+  </si>
+  <si>
+    <t>Cartão de crédito</t>
+  </si>
+  <si>
+    <t>Demais</t>
+  </si>
+  <si>
+    <t>Crédito rural</t>
+  </si>
+  <si>
+    <t>Financiamento imobiliário8/</t>
+  </si>
+  <si>
+    <t>Desconto de duplicatas</t>
+  </si>
+  <si>
+    <t>Capital de giro</t>
+  </si>
+  <si>
+    <t>ACC1/</t>
+  </si>
+  <si>
+    <t>Financiamento exportações</t>
+  </si>
+  <si>
+    <t>BNDES</t>
+  </si>
+  <si>
+    <t>Alimentação*</t>
+  </si>
+  <si>
+    <t>Produtos industriais</t>
+  </si>
+  <si>
+    <t>Alimentação no domicílio subjacente</t>
+  </si>
+  <si>
+    <t>Serviços subjacente</t>
+  </si>
+  <si>
+    <t>Bens industriais subjacente</t>
+  </si>
+  <si>
+    <t>IPCA-DP</t>
+  </si>
+  <si>
+    <t>IPCA-MS</t>
+  </si>
+  <si>
+    <t>IPCA-MA</t>
+  </si>
+  <si>
+    <t>IPCA-EX0</t>
+  </si>
+  <si>
+    <t>IPCA-EX1</t>
+  </si>
+  <si>
+    <t>IPCA-EX2</t>
+  </si>
+  <si>
+    <t>IPCA-EX3</t>
+  </si>
+  <si>
+    <t>Média dos núcleos</t>
+  </si>
+  <si>
+    <t>Geral</t>
+  </si>
+  <si>
+    <t>Quantum</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +681,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -42,12 +730,272 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -58,14 +1006,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -103,7 +1054,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -175,7 +1126,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -348,16 +1299,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EO1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:EO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:EO1"/>
+    <sheetView topLeftCell="DS1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:EO4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5</v>
       </c>
@@ -794,31 +1745,1872 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:145" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="BT3" s="13"/>
+      <c r="BU3" s="13"/>
+      <c r="BV3" s="13"/>
+      <c r="BW3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BX3" s="13"/>
+      <c r="BY3" s="13"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="11"/>
+      <c r="CE3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="11"/>
+      <c r="CK3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="11"/>
+      <c r="CO3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CP3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="CR3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="CU3" s="18"/>
+      <c r="CV3" s="19"/>
+      <c r="CW3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="CX3" s="18"/>
+      <c r="CY3" s="19"/>
+      <c r="CZ3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="DA3" s="21"/>
+      <c r="DB3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="DC3" s="21"/>
+      <c r="DD3" s="21"/>
+      <c r="DE3" s="21"/>
+      <c r="DF3" s="21"/>
+      <c r="DG3" s="21"/>
+      <c r="DH3" s="21"/>
+      <c r="DI3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="DJ3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="DK3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="DL3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="DM3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="DN3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="DO3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="DP3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="DQ3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="DR3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="DS3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="DT3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="DU3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="DV3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="DW3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="DX3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="DY3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="DZ3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="EA3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="EB3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="EC3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="ED3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="EE3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="EF3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="EG3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="EH3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="EI3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="EJ3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="EK3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="EL3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="EM3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="EN3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="EO3" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:145" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP4" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="BT4" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU4" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV4" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY4" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ4" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="CA4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CB4" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="CC4" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="CD4" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CF4" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="CG4" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="CH4" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="CI4" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="CK4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CL4" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM4" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="16"/>
+      <c r="CS4" s="3"/>
+      <c r="CT4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CU4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CV4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CY4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="CZ4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="DA4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="DB4" s="22"/>
+      <c r="DC4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="DE4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DG4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="DH4" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="DI4" s="3"/>
+      <c r="DJ4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DK4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DL4" s="28"/>
+      <c r="DM4" s="28"/>
+      <c r="DN4" s="28"/>
+      <c r="DO4" s="28"/>
+      <c r="DP4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DR4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DT4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DU4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DV4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DW4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DX4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DY4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DZ4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="EA4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="EB4" s="28"/>
+      <c r="EC4" s="28"/>
+      <c r="ED4" s="28"/>
+      <c r="EE4" s="28"/>
+      <c r="EF4" s="28"/>
+      <c r="EG4" s="28"/>
+      <c r="EH4" s="3"/>
+      <c r="EI4" s="3"/>
+      <c r="EJ4" s="3"/>
+      <c r="EK4" s="3"/>
+      <c r="EL4" s="3"/>
+      <c r="EM4" s="3"/>
+      <c r="EN4" s="28"/>
+      <c r="EO4" s="28"/>
+    </row>
   </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="EN3:EN4"/>
+    <mergeCell ref="EO3:EO4"/>
+    <mergeCell ref="EH3:EH4"/>
+    <mergeCell ref="EI3:EI4"/>
+    <mergeCell ref="EJ3:EJ4"/>
+    <mergeCell ref="EK3:EK4"/>
+    <mergeCell ref="EL3:EL4"/>
+    <mergeCell ref="EM3:EM4"/>
+    <mergeCell ref="EB3:EB4"/>
+    <mergeCell ref="EC3:EC4"/>
+    <mergeCell ref="ED3:ED4"/>
+    <mergeCell ref="EE3:EE4"/>
+    <mergeCell ref="EF3:EF4"/>
+    <mergeCell ref="EG3:EG4"/>
+    <mergeCell ref="DB3:DB4"/>
+    <mergeCell ref="DI3:DI4"/>
+    <mergeCell ref="DL3:DL4"/>
+    <mergeCell ref="DM3:DM4"/>
+    <mergeCell ref="DN3:DN4"/>
+    <mergeCell ref="DO3:DO4"/>
+    <mergeCell ref="CP3:CP4"/>
+    <mergeCell ref="CQ3:CQ4"/>
+    <mergeCell ref="CR3:CR4"/>
+    <mergeCell ref="CS3:CS4"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CY3"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BW3:BW4"/>
+    <mergeCell ref="CA3:CD3"/>
+    <mergeCell ref="CE3:CJ3"/>
+    <mergeCell ref="CK3:CN3"/>
+    <mergeCell ref="CO3:CO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AV3:BD3"/>
+    <mergeCell ref="BE3:BM3"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB767B1-4F56-403B-AF88-C8E9DCA71404}">
+  <dimension ref="A1:EK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:141" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>5</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>5</v>
+      </c>
+      <c r="P1">
+        <v>5</v>
+      </c>
+      <c r="Q1">
+        <v>5</v>
+      </c>
+      <c r="R1">
+        <v>5</v>
+      </c>
+      <c r="S1">
+        <v>5</v>
+      </c>
+      <c r="T1">
+        <v>5</v>
+      </c>
+      <c r="U1">
+        <v>5</v>
+      </c>
+      <c r="V1">
+        <v>5</v>
+      </c>
+      <c r="W1">
+        <v>5</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+      <c r="AD1">
+        <v>1</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AF1">
+        <v>1</v>
+      </c>
+      <c r="AG1">
+        <v>1</v>
+      </c>
+      <c r="AH1">
+        <v>5</v>
+      </c>
+      <c r="AI1">
+        <v>5</v>
+      </c>
+      <c r="AJ1">
+        <v>5</v>
+      </c>
+      <c r="AK1">
+        <v>5</v>
+      </c>
+      <c r="AL1">
+        <v>5</v>
+      </c>
+      <c r="AM1">
+        <v>5</v>
+      </c>
+      <c r="AN1">
+        <v>5</v>
+      </c>
+      <c r="AO1">
+        <v>5</v>
+      </c>
+      <c r="AP1">
+        <v>5</v>
+      </c>
+      <c r="AQ1">
+        <v>5</v>
+      </c>
+      <c r="AR1">
+        <v>1</v>
+      </c>
+      <c r="AS1">
+        <v>4</v>
+      </c>
+      <c r="AT1">
+        <v>5</v>
+      </c>
+      <c r="AU1">
+        <v>5</v>
+      </c>
+      <c r="AV1">
+        <v>5</v>
+      </c>
+      <c r="AW1">
+        <v>5</v>
+      </c>
+      <c r="AX1">
+        <v>5</v>
+      </c>
+      <c r="AY1">
+        <v>5</v>
+      </c>
+      <c r="AZ1">
+        <v>5</v>
+      </c>
+      <c r="BA1">
+        <v>5</v>
+      </c>
+      <c r="BB1">
+        <v>5</v>
+      </c>
+      <c r="BC1">
+        <v>5</v>
+      </c>
+      <c r="BD1">
+        <v>5</v>
+      </c>
+      <c r="BE1">
+        <v>5</v>
+      </c>
+      <c r="BF1">
+        <v>5</v>
+      </c>
+      <c r="BG1">
+        <v>5</v>
+      </c>
+      <c r="BH1">
+        <v>5</v>
+      </c>
+      <c r="BI1">
+        <v>5</v>
+      </c>
+      <c r="BJ1">
+        <v>5</v>
+      </c>
+      <c r="BK1">
+        <v>5</v>
+      </c>
+      <c r="BL1">
+        <v>5</v>
+      </c>
+      <c r="BM1">
+        <v>5</v>
+      </c>
+      <c r="BN1">
+        <v>5</v>
+      </c>
+      <c r="BO1">
+        <v>5</v>
+      </c>
+      <c r="BP1">
+        <v>5</v>
+      </c>
+      <c r="BQ1">
+        <v>5</v>
+      </c>
+      <c r="BR1">
+        <v>5</v>
+      </c>
+      <c r="BS1">
+        <v>5</v>
+      </c>
+      <c r="BT1">
+        <v>5</v>
+      </c>
+      <c r="BU1">
+        <v>5</v>
+      </c>
+      <c r="BV1">
+        <v>5</v>
+      </c>
+      <c r="BW1">
+        <v>1</v>
+      </c>
+      <c r="BX1">
+        <v>5</v>
+      </c>
+      <c r="BY1">
+        <v>5</v>
+      </c>
+      <c r="BZ1">
+        <v>5</v>
+      </c>
+      <c r="CA1">
+        <v>5</v>
+      </c>
+      <c r="CB1">
+        <v>5</v>
+      </c>
+      <c r="CC1">
+        <v>5</v>
+      </c>
+      <c r="CD1">
+        <v>5</v>
+      </c>
+      <c r="CE1">
+        <v>5</v>
+      </c>
+      <c r="CF1">
+        <v>5</v>
+      </c>
+      <c r="CG1">
+        <v>5</v>
+      </c>
+      <c r="CH1">
+        <v>5</v>
+      </c>
+      <c r="CI1">
+        <v>5</v>
+      </c>
+      <c r="CJ1">
+        <v>5</v>
+      </c>
+      <c r="CK1">
+        <v>5</v>
+      </c>
+      <c r="CL1">
+        <v>5</v>
+      </c>
+      <c r="CM1">
+        <v>5</v>
+      </c>
+      <c r="CN1">
+        <v>5</v>
+      </c>
+      <c r="CO1">
+        <v>5</v>
+      </c>
+      <c r="CP1">
+        <v>5</v>
+      </c>
+      <c r="CQ1">
+        <v>5</v>
+      </c>
+      <c r="CR1">
+        <v>5</v>
+      </c>
+      <c r="CS1">
+        <v>5</v>
+      </c>
+      <c r="CT1">
+        <v>5</v>
+      </c>
+      <c r="CU1">
+        <v>5</v>
+      </c>
+      <c r="CV1">
+        <v>5</v>
+      </c>
+      <c r="CW1">
+        <v>5</v>
+      </c>
+      <c r="CX1">
+        <v>4</v>
+      </c>
+      <c r="CY1">
+        <v>5</v>
+      </c>
+      <c r="CZ1">
+        <v>5</v>
+      </c>
+      <c r="DA1">
+        <v>5</v>
+      </c>
+      <c r="DB1">
+        <v>5</v>
+      </c>
+      <c r="DC1">
+        <v>5</v>
+      </c>
+      <c r="DD1">
+        <v>5</v>
+      </c>
+      <c r="DE1">
+        <v>5</v>
+      </c>
+      <c r="DF1">
+        <v>5</v>
+      </c>
+      <c r="DG1">
+        <v>5</v>
+      </c>
+      <c r="DH1">
+        <v>5</v>
+      </c>
+      <c r="DI1">
+        <v>5</v>
+      </c>
+      <c r="DJ1">
+        <v>5</v>
+      </c>
+      <c r="DK1">
+        <v>5</v>
+      </c>
+      <c r="DL1">
+        <v>5</v>
+      </c>
+      <c r="DM1">
+        <v>5</v>
+      </c>
+      <c r="DN1">
+        <v>5</v>
+      </c>
+      <c r="DO1">
+        <v>5</v>
+      </c>
+      <c r="DP1">
+        <v>5</v>
+      </c>
+      <c r="DQ1">
+        <v>5</v>
+      </c>
+      <c r="DR1">
+        <v>5</v>
+      </c>
+      <c r="DS1">
+        <v>5</v>
+      </c>
+      <c r="DT1">
+        <v>5</v>
+      </c>
+      <c r="DU1">
+        <v>5</v>
+      </c>
+      <c r="DV1">
+        <v>5</v>
+      </c>
+      <c r="DW1">
+        <v>5</v>
+      </c>
+      <c r="DX1">
+        <v>1</v>
+      </c>
+      <c r="DY1">
+        <v>1</v>
+      </c>
+      <c r="DZ1">
+        <v>1</v>
+      </c>
+      <c r="EA1">
+        <v>1</v>
+      </c>
+      <c r="EB1">
+        <v>4</v>
+      </c>
+      <c r="EC1">
+        <v>4</v>
+      </c>
+      <c r="ED1">
+        <v>4</v>
+      </c>
+      <c r="EE1">
+        <v>4</v>
+      </c>
+      <c r="EF1">
+        <v>4</v>
+      </c>
+      <c r="EG1">
+        <v>4</v>
+      </c>
+      <c r="EH1">
+        <v>1</v>
+      </c>
+      <c r="EI1">
+        <v>1</v>
+      </c>
+      <c r="EJ1">
+        <v>4</v>
+      </c>
+      <c r="EK1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:141" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="BT3" s="13"/>
+      <c r="BU3" s="13"/>
+      <c r="BV3" s="13"/>
+      <c r="BW3" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="BX3" s="13"/>
+      <c r="BY3" s="13"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="11"/>
+      <c r="CG3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="11"/>
+      <c r="CK3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="CN3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="CO3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="CP3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="CQ3" s="18"/>
+      <c r="CR3" s="19"/>
+      <c r="CS3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="CT3" s="18"/>
+      <c r="CU3" s="19"/>
+      <c r="CV3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="CW3" s="21"/>
+      <c r="CX3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY3" s="21"/>
+      <c r="CZ3" s="21"/>
+      <c r="DA3" s="21"/>
+      <c r="DB3" s="21"/>
+      <c r="DC3" s="21"/>
+      <c r="DD3" s="21"/>
+      <c r="DE3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="DF3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="DG3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="DH3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="DI3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="DJ3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="DK3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="DL3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="DM3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="DN3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="DO3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="DP3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="DQ3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="DR3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="DS3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="DT3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="DU3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="DV3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="DW3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="DX3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="DY3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="DZ3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="EA3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="EB3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="EC3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="ED3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="EE3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="EF3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="EG3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="EH3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="EJ3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="EK3" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:141" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP4" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="BT4" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU4" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV4" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW4" s="40"/>
+      <c r="BX4" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY4" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ4" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="CA4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CB4" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="CC4" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="CD4" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE4" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="CF4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CH4" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI4" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="16"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CQ4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CR4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CS4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CT4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CU4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="CV4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="CW4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="CX4" s="22"/>
+      <c r="CY4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CZ4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="DA4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DC4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD4" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="DE4" s="3"/>
+      <c r="DF4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DH4" s="28"/>
+      <c r="DI4" s="28"/>
+      <c r="DJ4" s="28"/>
+      <c r="DK4" s="28"/>
+      <c r="DL4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DM4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DN4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DO4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DP4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DR4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DT4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DU4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DV4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DW4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="DX4" s="28"/>
+      <c r="DY4" s="28"/>
+      <c r="DZ4" s="28"/>
+      <c r="EA4" s="28"/>
+      <c r="EB4" s="28"/>
+      <c r="EC4" s="28"/>
+      <c r="ED4" s="3"/>
+      <c r="EE4" s="3"/>
+      <c r="EF4" s="3"/>
+      <c r="EG4" s="3"/>
+      <c r="EH4" s="3"/>
+      <c r="EI4" s="3"/>
+      <c r="EJ4" s="28"/>
+      <c r="EK4" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="EJ3:EJ4"/>
+    <mergeCell ref="EK3:EK4"/>
+    <mergeCell ref="ED3:ED4"/>
+    <mergeCell ref="EE3:EE4"/>
+    <mergeCell ref="EF3:EF4"/>
+    <mergeCell ref="EG3:EG4"/>
+    <mergeCell ref="EH3:EH4"/>
+    <mergeCell ref="EI3:EI4"/>
+    <mergeCell ref="DX3:DX4"/>
+    <mergeCell ref="DY3:DY4"/>
+    <mergeCell ref="DZ3:DZ4"/>
+    <mergeCell ref="EA3:EA4"/>
+    <mergeCell ref="EB3:EB4"/>
+    <mergeCell ref="EC3:EC4"/>
+    <mergeCell ref="CX3:CX4"/>
+    <mergeCell ref="DE3:DE4"/>
+    <mergeCell ref="DH3:DH4"/>
+    <mergeCell ref="DI3:DI4"/>
+    <mergeCell ref="DJ3:DJ4"/>
+    <mergeCell ref="DK3:DK4"/>
+    <mergeCell ref="CL3:CL4"/>
+    <mergeCell ref="CM3:CM4"/>
+    <mergeCell ref="CN3:CN4"/>
+    <mergeCell ref="CO3:CO4"/>
+    <mergeCell ref="CP3:CR3"/>
+    <mergeCell ref="CS3:CU3"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BW3:BW4"/>
+    <mergeCell ref="CA3:CF3"/>
+    <mergeCell ref="CG3:CJ3"/>
+    <mergeCell ref="CK3:CK4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AV3:BD3"/>
+    <mergeCell ref="BE3:BM3"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>